--- a/experiment_plans/lymph_lung_ex_plan.xlsx
+++ b/experiment_plans/lymph_lung_ex_plan.xlsx
@@ -17273,95 +17273,95 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>283</v>
+        <v>4</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>179</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>7</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -17370,31 +17370,31 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>9</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>8</v>
@@ -17405,183 +17405,183 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>15</v>
+        <v>282</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>11</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>285</v>
+        <v>15</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>184</v>
@@ -17590,31 +17590,31 @@
         <v>184</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>184</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>355</v>
+        <v>289</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>184</v>
@@ -17625,189 +17625,189 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>186</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>24</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>289</v>
+        <v>22</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>187</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>120</v>
+        <v>243</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>25</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>28</v>
@@ -17816,25 +17816,25 @@
         <v>28</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>28</v>
@@ -17845,101 +17845,101 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>4</v>
+        <v>252</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>29</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>252</v>
+        <v>27</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>188</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>189</v>
@@ -17948,25 +17948,25 @@
         <v>189</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>189</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>189</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>189</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>189</v>
@@ -17977,398 +17977,398 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>231</v>
+        <v>30</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>190</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>338</v>
+        <v>231</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>327</v>
+        <v>44</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>192</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>349</v>
+        <v>283</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>232</v>
+        <v>45</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>198</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>293</v>
+        <v>46</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>201</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -18376,506 +18376,506 @@
         <v>351</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>351</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>351</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>351</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>351</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="L27" s="1" t="s">
         <v>351</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>266</v>
+        <v>48</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>203</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>37</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>27</v>
+        <v>338</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>47</v>
+        <v>201</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>237</v>
+        <v>355</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>52</v>
+        <v>203</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>56</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>57</v>
@@ -18884,13 +18884,13 @@
         <v>57</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>57</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="M38" s="2" t="s">
         <v>57</v>
@@ -18901,25 +18901,25 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>205</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>205</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>205</v>
@@ -18928,13 +18928,13 @@
         <v>205</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>205</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>205</v>
@@ -18945,383 +18945,383 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>206</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="K41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>211</v>
+        <v>120</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>209</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="K45" s="2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>70</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>70</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>70</v>
@@ -19330,7 +19330,7 @@
         <v>70</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>70</v>
@@ -19341,119 +19341,119 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>30</v>
+        <v>194</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>71</v>
+        <v>210</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>243</v>
+        <v>139</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>210</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>213</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>213</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>213</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>213</v>
@@ -19462,7 +19462,7 @@
         <v>213</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>213</v>
@@ -27386,7 +27386,7 @@
         <v>25</v>
       </c>
       <c r="F3" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="G3" t="n">
         <v>10</v>
@@ -27409,7 +27409,7 @@
         <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G4" t="n">
         <v>20</v>
@@ -27432,7 +27432,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="n">
-        <v>201</v>
+        <v>240</v>
       </c>
       <c r="G5" t="n">
         <v>30</v>
